--- a/INTLINE/data/534/MOCI/Merchandise_Trade_Imports_historical.xlsx
+++ b/INTLINE/data/534/MOCI/Merchandise_Trade_Imports_historical.xlsx
@@ -1,37 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merchandise_Trade_Imports" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Merchandise_Trade_Imports" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>EU Countries</t>
+  </si>
+  <si>
+    <t>Other European Countries</t>
+  </si>
+  <si>
+    <t>West Africa</t>
+  </si>
+  <si>
+    <t>Central Africa</t>
+  </si>
+  <si>
+    <t>East Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>East Asia (Oceania)</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>NE Asia</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>CARs Countries</t>
+  </si>
+  <si>
+    <t>Other CIS Countries</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>India's Total Import</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +174,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +193,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1327 +490,1291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>2020</v>
+    <row r="1" spans="1:26">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>EU Countries</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
         <v>8494.059999999999</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8437.559999999999</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>8265.219999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>8432.65</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>7508.1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>8086.59</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>10058.08</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>11847.89</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>15737.94</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>22097.4</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>25735.62</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>33514.87</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>36876.51</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>33998.34</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>39171.21</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>49761.3</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>45999.51</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>43915.56</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>44218.11</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>38741.57</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>38719.63</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>43066.66</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>50863.19</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>45041.3</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>39716.21</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Other European Countries</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
         <v>2207.12</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2513.19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2723.27</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2801.01</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>3215.01</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2635.98</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2841.77</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>3313.39</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>3705.61</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>4130.47</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>4516.23</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>6658.62</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>7392.1</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>6098.49</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>6241.13</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>8332.83</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>8414.219999999999</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>7034.81</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>6586.42</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>6023.45</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>4933.51</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>7057.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>10020.93</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>8906.209999999999</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>6446.84</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>West Africa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
         <v>1654.94</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1319.91</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1400.74</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3271.99</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>451.45</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>476.82</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>539.73</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>580.35</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>824.8200000000001</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1161.99</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>8178.06</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>9726.27</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>11179.37</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>9864.24</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>12862.57</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>17850.58</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>16264.44</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>17236.8</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>20034.56</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>16740.61</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>13024.96</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>16833.18</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>20083.9</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>17237.55</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>11730.57</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Central Africa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
         <v>48.75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>33.1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>7.45</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3.08</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.91</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>7.65</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>5.56</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>10.99</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>17.2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>19.36</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>29.05</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>49.24</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>153.06</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>270.43</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>45.74</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>85.63</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>230.12</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>108.2</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>265.82</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>530.75</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>368.7</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>479.31</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>554.26</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>377.11</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>112.79</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>East Africa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
         <v>114.54</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>101.31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>167.02</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>154.74</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>92.73</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>148.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>183.39</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>184.06</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>218.55</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>223.73</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>234.42</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>321.14</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>353.43</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>388.49</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>579.73</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>542.87</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>1054.6</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>1034.02</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>1441.99</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>1326.79</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>1319.11</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>1403.77</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>1550.26</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>1436.24</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>1280.9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:26">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
         <v>3973.53</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4214.58</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4117.85</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>4037.21</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3465.9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3741.28</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>5075.39</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>5834.6</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>7859.7</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>10472.22</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>14309.42</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>24237.59</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>22745.16</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>20120</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>23244.15</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>28953.4</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>32042.56</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>29325.77</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>28957.17</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>28298.61</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>29383.48</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>35269.81</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>44641.92</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>43997</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>34420.44</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Latin America</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:26">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
         <v>529.6900000000001</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>492.47</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>638.55</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>840.26</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>659.83</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>943.98</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>980.53</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1118.77</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1972.17</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>2568.63</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>5340.29</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>5368.62</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>8240.440000000001</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>9356.299999999999</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>13042.52</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>16141.02</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>27497.09</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>28128.07</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>26951.76</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>17691.79</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>17290.63</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>20723.48</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>20547.11</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>17074.9</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>12479.2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>East Asia (Oceania)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:26">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
         <v>1401.97</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1574.15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1545.37</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1197.22</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1182.11</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1394.26</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1422.71</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>2751.32</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>4050.19</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>5280.79</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>7575.15</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>8356.459999999999</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>11788.66</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>13025.45</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>11640.78</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>16662.79</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>13930.25</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>10628.26</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>11024.34</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>9702.58</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>11828.22</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>14902.23</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>13913.64</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>10402.61</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>8790.43</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>ASEAN</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
         <v>2934</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3396.44</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4317.38</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>4629.16</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>4147.48</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>4387.22</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>5150.17</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>7433.11</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>9114.66</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>10883.67</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>18108.48</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>22674.81</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>26202.96</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>25797.96</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>30607.96</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>42158.84</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>42866.36</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>41278.09</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>44714.77</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>39909.6</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>40617.31</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>47133.69</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>59321.32</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>55369.87</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>47420.63</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>NE Asia</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:26">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
         <v>4603.26</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5053.59</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>5864.18</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>6172.81</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>5618.39</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>6617.14</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>7803.61</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>11815.92</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>16673.62</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>23141.29</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>31532.22</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>44785.42</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>58455.94</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>53491.57</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>76109.73</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>95556.85000000001</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>89907.33</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>84372.92999999999</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>93812.8</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>94111.56</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>95068.59</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>118353.14</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>122425.84</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>114346.52</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>108145.89</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>South Asia</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:26">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
         <v>242.31</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>245</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>493.7</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>418.7</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>492.49</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>589.03</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>530.4299999999999</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>709.3099999999999</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>997.1900000000001</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>1413.31</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>1507.45</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>2117.35</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>1817.89</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>1657.34</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>2173.37</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>2524.74</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>2679.95</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>2472.98</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>2930.85</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>2975.01</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>2813.4</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>3202.66</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>4363.02</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>3835.58</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>3377.12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>CARs Countries</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:26">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
         <v>16.24</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>38.77</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>16.83</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>30.96</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>30.72</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>28.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>39.22</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>50.79</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>62.43</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>72.15000000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>142.87</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>112.26</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>260.36</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>212.37</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>192.99</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>258.11</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>195.11</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>703.42</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>775.73</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>456.91</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>612.45</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>1116.49</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>862.96</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>2328.16</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>826.4299999999999</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Other CIS Countries</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:26">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
         <v>651.26</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>823.13</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>681.73</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>777.76</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>651.28</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>708.14</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>805.08</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>1210.67</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>1897.78</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>2880.46</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>3718.58</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>3675.29</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>6367.12</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>5891.63</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>5471.29</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>8146.71</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>7684.68</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>7019.79</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>6889.5</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>6621.47</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>8710.32</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>11759.11</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>8580.01</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>9588.35</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>8326.68</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:26">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
         <v>4389.02</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3345.46</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.07</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2566.69</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>15682.57</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>14077.38</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>17788.1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>20776.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>30387.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>44477.79</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>843.22</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>1804.84</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>1442.72</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>992.12</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>4427.17</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>1162.52</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>1992.27</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>4184.15</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>7966.95</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>8987.389999999999</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>7470.75</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>9357.879999999999</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>225.89</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>255.8</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>95.27</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>India's Total Import</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
         <v>39132.41</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>41484.49</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>42388.71</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>49738.06</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>50536.45</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>51413.28</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>61412.14</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>78149.11</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>111517.43</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>149165.73</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>185735.24</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>251654.01</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>303696.31</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>288372.88</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>369769.13</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>489319.49</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>490736.65</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>450199.79</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>448033.41</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>381007.76</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>384357.03</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>465580.99</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>514078.42</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>474709.28</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>394435.88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOCI/Merchandise_Trade_Imports_historical.xlsx
+++ b/INTLINE/data/534/MOCI/Merchandise_Trade_Imports_historical.xlsx
@@ -1,165 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Merchandise_Trade_Imports" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merchandise_Trade_Imports" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>EU Countries</t>
-  </si>
-  <si>
-    <t>Other European Countries</t>
-  </si>
-  <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
-  </si>
-  <si>
-    <t>East Africa</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
-    <t>East Asia (Oceania)</t>
-  </si>
-  <si>
-    <t>ASEAN</t>
-  </si>
-  <si>
-    <t>NE Asia</t>
-  </si>
-  <si>
-    <t>South Asia</t>
-  </si>
-  <si>
-    <t>CARs Countries</t>
-  </si>
-  <si>
-    <t>Other CIS Countries</t>
-  </si>
-  <si>
-    <t>Unspecified</t>
-  </si>
-  <si>
-    <t>India's Total Import</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -174,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -193,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -490,1291 +353,1377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EU Countries</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>8494.059999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>8437.559999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>8265.219999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>8432.65</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>7508.1</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>8086.59</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>10058.08</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>11847.89</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>15737.94</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>22097.4</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>25735.62</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>33514.87</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>36876.51</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>33998.34</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>39171.21</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>49761.3</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>45999.51</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>43915.56</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>44218.11</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>38741.57</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>38719.63</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>43066.66</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>50863.19</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>45041.3</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>39716.21</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Other European Countries</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2207.12</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2513.19</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2723.27</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2801.01</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>3215.01</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>2635.98</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>2841.77</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>3313.39</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>3705.61</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>4130.47</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>4516.23</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>6658.62</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>7392.1</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>6098.49</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>6241.13</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>8332.83</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>8414.219999999999</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>7034.81</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>6586.42</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>6023.45</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>4933.51</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>7057.3</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>10020.93</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>8906.209999999999</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>6446.84</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>West Africa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1654.94</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1319.91</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1400.74</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>3271.99</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>451.45</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>476.82</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>539.73</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>580.35</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>824.8200000000001</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1161.99</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>8178.06</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>9726.27</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>11179.37</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>9864.24</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>12862.57</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>17850.58</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>16264.44</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>17236.8</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>20034.56</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>16740.61</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>13024.96</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>16833.18</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>20083.9</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>17237.55</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>11730.57</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Central Africa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>48.75</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>33.1</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>7.45</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3.08</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>3.91</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>7.65</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>5.56</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>10.99</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>17.2</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>19.36</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>29.05</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>49.24</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>153.06</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>270.43</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>45.74</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>85.63</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>230.12</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>108.2</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>265.82</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>530.75</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>368.7</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>479.31</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>554.26</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>377.11</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>112.79</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>East Africa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>114.54</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>101.31</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>167.02</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>154.74</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>92.73</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>148.2</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>183.39</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>184.06</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>218.55</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>223.73</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>234.42</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>321.14</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>353.43</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>388.49</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>579.73</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>542.87</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>1054.6</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>1034.02</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>1441.99</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>1326.79</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>1319.11</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>1403.77</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>1550.26</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>1436.24</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>1280.9</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>3973.53</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>4214.58</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4117.85</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>4037.21</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>3465.9</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>3741.28</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>5075.39</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>5834.6</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>7859.7</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>10472.22</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>14309.42</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>24237.59</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>22745.16</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>20120</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>23244.15</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>28953.4</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>32042.56</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>29325.77</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>28957.17</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>28298.61</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>29383.48</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>35269.81</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>44641.92</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>43997</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>34420.44</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>529.6900000000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>492.47</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>638.55</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>840.26</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>659.83</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>943.98</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>980.53</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>1118.77</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1972.17</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>2568.63</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>5340.29</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>5368.62</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>8240.440000000001</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>9356.299999999999</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>13042.52</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>16141.02</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>27497.09</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>28128.07</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>26951.76</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>17691.79</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>17290.63</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>20723.48</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>20547.11</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>17074.9</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>12479.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>East Asia (Oceania)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>1401.97</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>1574.15</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>1545.37</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>1197.22</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>1182.11</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>1394.26</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>1422.71</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>2751.32</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>4050.19</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>5280.79</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>7575.15</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>8356.459999999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>11788.66</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>13025.45</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>11640.78</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>16662.79</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>13930.25</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>10628.26</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>11024.34</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>9702.58</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>11828.22</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>14902.23</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>13913.64</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>10402.61</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>8790.43</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ASEAN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>2934</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>3396.44</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>4317.38</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>4629.16</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>4147.48</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>4387.22</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>5150.17</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>7433.11</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>9114.66</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>10883.67</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>18108.48</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>22674.81</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>26202.96</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>25797.96</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>30607.96</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>42158.84</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>42866.36</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>41278.09</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>44714.77</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>39909.6</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>40617.31</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>47133.69</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>59321.32</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>55369.87</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>47420.63</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>NE Asia</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>4603.26</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>5053.59</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>5864.18</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>6172.81</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>5618.39</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>6617.14</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>7803.61</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>11815.92</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>16673.62</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>23141.29</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>31532.22</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>44785.42</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>58455.94</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>53491.57</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>76109.73</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>95556.85000000001</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>89907.33</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>84372.92999999999</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>93812.8</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>94111.56</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>95068.59</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>118353.14</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>122425.84</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>114346.52</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>108145.89</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>242.31</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>245</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>493.7</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>418.7</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>492.49</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>589.03</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>530.4299999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>709.3099999999999</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>997.1900000000001</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>1413.31</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>1507.45</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>2117.35</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>1817.89</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>1657.34</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>2173.37</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>2524.74</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>2679.95</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>2472.98</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>2930.85</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>2975.01</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>2813.4</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>3202.66</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>4363.02</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>3835.58</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>3377.12</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CARs Countries</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>16.24</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>38.77</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>16.83</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>30.96</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>30.72</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>28.5</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>39.22</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>50.79</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>62.43</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>72.15000000000001</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>142.87</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>112.26</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>260.36</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>212.37</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>192.99</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>258.11</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>195.11</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>703.42</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>775.73</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>456.91</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>612.45</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>1116.49</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>862.96</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>2328.16</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>826.4299999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Other CIS Countries</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>651.26</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>823.13</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>681.73</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>777.76</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>651.28</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>708.14</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>805.08</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>1210.67</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>1897.78</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>2880.46</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>3718.58</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>3675.29</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>6367.12</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>5891.63</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>5471.29</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>8146.71</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>7684.68</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>7019.79</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>6889.5</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>6621.47</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>8710.32</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>11759.11</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>8580.01</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>9588.35</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>8326.68</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>4389.02</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>3345.46</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>1.07</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>2566.69</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>15682.57</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>14077.38</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>17788.1</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>20776.8</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>30387.4</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>44477.79</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>843.22</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>1804.84</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>1442.72</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>992.12</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>4427.17</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>1162.52</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>1992.27</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>4184.15</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>7966.95</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>8987.389999999999</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>7470.75</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>9357.879999999999</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>225.89</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>255.8</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>95.27</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>India's Total Import</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>39132.41</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>41484.49</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>42388.71</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>49738.06</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>50536.45</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>51413.28</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>61412.14</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>78149.11</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>111517.43</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>149165.73</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>185735.24</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>251654.01</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>303696.31</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>288372.88</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>369769.13</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>489319.49</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>490736.65</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>450199.79</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>448033.41</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>381007.76</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>384357.03</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>465580.99</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>514078.42</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>474709.28</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>394435.88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>